--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.01341616020927</v>
+        <v>1.404023666666667</v>
       </c>
       <c r="H2">
-        <v>1.01341616020927</v>
+        <v>4.212071</v>
       </c>
       <c r="I2">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="J2">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N2">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q2">
-        <v>46.20049010387137</v>
+        <v>65.05818801337877</v>
       </c>
       <c r="R2">
-        <v>46.20049010387137</v>
+        <v>585.5236921204089</v>
       </c>
       <c r="S2">
-        <v>0.0008062834636199595</v>
+        <v>0.0009597979520451813</v>
       </c>
       <c r="T2">
-        <v>0.0008062834636199595</v>
+        <v>0.0009597979520451811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.01341616020927</v>
+        <v>1.404023666666667</v>
       </c>
       <c r="H3">
-        <v>1.01341616020927</v>
+        <v>4.212071</v>
       </c>
       <c r="I3">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="J3">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N3">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q3">
-        <v>85.19378224600035</v>
+        <v>118.6534789285412</v>
       </c>
       <c r="R3">
-        <v>85.19378224600035</v>
+        <v>1067.881310356871</v>
       </c>
       <c r="S3">
-        <v>0.001486788076787823</v>
+        <v>0.001750484751515529</v>
       </c>
       <c r="T3">
-        <v>0.001486788076787823</v>
+        <v>0.001750484751515529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.01341616020927</v>
+        <v>1.404023666666667</v>
       </c>
       <c r="H4">
-        <v>1.01341616020927</v>
+        <v>4.212071</v>
       </c>
       <c r="I4">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="J4">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N4">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q4">
-        <v>65.66285714785774</v>
+        <v>101.8308946457438</v>
       </c>
       <c r="R4">
-        <v>65.66285714785774</v>
+        <v>916.4780518116939</v>
       </c>
       <c r="S4">
-        <v>0.00114593753818038</v>
+        <v>0.00150230258666003</v>
       </c>
       <c r="T4">
-        <v>0.00114593753818038</v>
+        <v>0.00150230258666003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.01341616020927</v>
+        <v>1.404023666666667</v>
       </c>
       <c r="H5">
-        <v>1.01341616020927</v>
+        <v>4.212071</v>
       </c>
       <c r="I5">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="J5">
-        <v>0.003907478495419378</v>
+        <v>0.004814659541656092</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N5">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q5">
-        <v>26.84355767276236</v>
+        <v>40.81052659513443</v>
       </c>
       <c r="R5">
-        <v>26.84355767276236</v>
+        <v>367.2947393562099</v>
       </c>
       <c r="S5">
-        <v>0.0004684694168312157</v>
+        <v>0.0006020742514353522</v>
       </c>
       <c r="T5">
-        <v>0.0004684694168312157</v>
+        <v>0.0006020742514353522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.2956367439946</v>
+        <v>21.406858</v>
       </c>
       <c r="H6">
-        <v>21.2956367439946</v>
+        <v>64.220574</v>
       </c>
       <c r="I6">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="J6">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N6">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q6">
-        <v>970.843857910647</v>
+        <v>991.9287157360607</v>
       </c>
       <c r="R6">
-        <v>970.843857910647</v>
+        <v>8927.358441624545</v>
       </c>
       <c r="S6">
-        <v>0.01694300962241887</v>
+        <v>0.01463384055120771</v>
       </c>
       <c r="T6">
-        <v>0.01694300962241887</v>
+        <v>0.01463384055120771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.2956367439946</v>
+        <v>21.406858</v>
       </c>
       <c r="H7">
-        <v>21.2956367439946</v>
+        <v>64.220574</v>
       </c>
       <c r="I7">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="J7">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N7">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q7">
-        <v>1790.237723447352</v>
+        <v>1809.085013972419</v>
       </c>
       <c r="R7">
-        <v>1790.237723447352</v>
+        <v>16281.76512575177</v>
       </c>
       <c r="S7">
-        <v>0.03124293852985098</v>
+        <v>0.02668927839074286</v>
       </c>
       <c r="T7">
-        <v>0.03124293852985098</v>
+        <v>0.02668927839074286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.2956367439946</v>
+        <v>21.406858</v>
       </c>
       <c r="H8">
-        <v>21.2956367439946</v>
+        <v>64.220574</v>
       </c>
       <c r="I8">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="J8">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N8">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q8">
-        <v>1379.820461028402</v>
+        <v>1552.59455623687</v>
       </c>
       <c r="R8">
-        <v>1379.820461028402</v>
+        <v>13973.35100613184</v>
       </c>
       <c r="S8">
-        <v>0.02408040299984708</v>
+        <v>0.02290529633450905</v>
       </c>
       <c r="T8">
-        <v>0.02408040299984708</v>
+        <v>0.02290529633450905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.2956367439946</v>
+        <v>21.406858</v>
       </c>
       <c r="H9">
-        <v>21.2956367439946</v>
+        <v>64.220574</v>
       </c>
       <c r="I9">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="J9">
-        <v>0.08211063321334679</v>
+        <v>0.07340811666748523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N9">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q9">
-        <v>564.0828275301734</v>
+        <v>622.2296450325265</v>
       </c>
       <c r="R9">
-        <v>564.0828275301734</v>
+        <v>5600.066805292739</v>
       </c>
       <c r="S9">
-        <v>0.009844282061229859</v>
+        <v>0.009179701391025615</v>
       </c>
       <c r="T9">
-        <v>0.009844282061229859</v>
+        <v>0.009179701391025615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>231.690271185858</v>
+        <v>261.5073063333334</v>
       </c>
       <c r="H10">
-        <v>231.690271185858</v>
+        <v>784.521919</v>
       </c>
       <c r="I10">
-        <v>0.893339565524271</v>
+        <v>0.89675742478028</v>
       </c>
       <c r="J10">
-        <v>0.893339565524271</v>
+        <v>0.8967574247802799</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N10">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q10">
-        <v>10562.49594330042</v>
+        <v>12117.45350610631</v>
       </c>
       <c r="R10">
-        <v>10562.49594330042</v>
+        <v>109057.0815549568</v>
       </c>
       <c r="S10">
-        <v>0.1843349668908038</v>
+        <v>0.1787677679675285</v>
       </c>
       <c r="T10">
-        <v>0.1843349668908038</v>
+        <v>0.1787677679675284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>231.690271185858</v>
+        <v>261.5073063333334</v>
       </c>
       <c r="H11">
-        <v>231.690271185858</v>
+        <v>784.521919</v>
       </c>
       <c r="I11">
-        <v>0.893339565524271</v>
+        <v>0.89675742478028</v>
       </c>
       <c r="J11">
-        <v>0.893339565524271</v>
+        <v>0.8967574247802799</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N11">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q11">
-        <v>19477.26046508746</v>
+        <v>22099.87794247657</v>
       </c>
       <c r="R11">
-        <v>19477.26046508746</v>
+        <v>198898.9014822891</v>
       </c>
       <c r="S11">
-        <v>0.3399139921310682</v>
+        <v>0.3260376324233853</v>
       </c>
       <c r="T11">
-        <v>0.3399139921310682</v>
+        <v>0.3260376324233853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>231.690271185858</v>
+        <v>261.5073063333334</v>
       </c>
       <c r="H12">
-        <v>231.690271185858</v>
+        <v>784.521919</v>
       </c>
       <c r="I12">
-        <v>0.893339565524271</v>
+        <v>0.89675742478028</v>
       </c>
       <c r="J12">
-        <v>0.893339565524271</v>
+        <v>0.8967574247802799</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N12">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q12">
-        <v>15012.04122922595</v>
+        <v>18966.5769833808</v>
       </c>
       <c r="R12">
-        <v>15012.04122922595</v>
+        <v>170699.1928504271</v>
       </c>
       <c r="S12">
-        <v>0.2619877098942655</v>
+        <v>0.2798123080558686</v>
       </c>
       <c r="T12">
-        <v>0.2619877098942655</v>
+        <v>0.2798123080558686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>231.690271185858</v>
+        <v>261.5073063333334</v>
       </c>
       <c r="H13">
-        <v>231.690271185858</v>
+        <v>784.521919</v>
       </c>
       <c r="I13">
-        <v>0.893339565524271</v>
+        <v>0.89675742478028</v>
       </c>
       <c r="J13">
-        <v>0.893339565524271</v>
+        <v>0.8967574247802799</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N13">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O13">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P13">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q13">
-        <v>6137.055437828452</v>
+        <v>7601.190160330964</v>
       </c>
       <c r="R13">
-        <v>6137.055437828452</v>
+        <v>68410.71144297867</v>
       </c>
       <c r="S13">
-        <v>0.1071028966081335</v>
+        <v>0.1121397163334975</v>
       </c>
       <c r="T13">
-        <v>0.1071028966081335</v>
+        <v>0.1121397163334975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.3536477554052</v>
+        <v>7.296131666666668</v>
       </c>
       <c r="H14">
-        <v>5.3536477554052</v>
+        <v>21.888395</v>
       </c>
       <c r="I14">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="J14">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N14">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O14">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P14">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q14">
-        <v>244.0667120328289</v>
+        <v>338.0805587610228</v>
       </c>
       <c r="R14">
-        <v>244.0667120328289</v>
+        <v>3042.725028849205</v>
       </c>
       <c r="S14">
-        <v>0.004259412692153991</v>
+        <v>0.004987673924431945</v>
       </c>
       <c r="T14">
-        <v>0.004259412692153991</v>
+        <v>0.004987673924431944</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.3536477554052</v>
+        <v>7.296131666666668</v>
       </c>
       <c r="H15">
-        <v>5.3536477554052</v>
+        <v>21.888395</v>
       </c>
       <c r="I15">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="J15">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N15">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P15">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q15">
-        <v>450.0594316569762</v>
+        <v>616.5931711293772</v>
       </c>
       <c r="R15">
-        <v>450.0594316569762</v>
+        <v>5549.338540164395</v>
       </c>
       <c r="S15">
-        <v>0.007854364241058346</v>
+        <v>0.009096546967667152</v>
       </c>
       <c r="T15">
-        <v>0.007854364241058346</v>
+        <v>0.009096546967667152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.3536477554052</v>
+        <v>7.296131666666668</v>
       </c>
       <c r="H16">
-        <v>5.3536477554052</v>
+        <v>21.888395</v>
       </c>
       <c r="I16">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="J16">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N16">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O16">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P16">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q16">
-        <v>346.881983518527</v>
+        <v>529.1731419554478</v>
       </c>
       <c r="R16">
-        <v>346.881983518527</v>
+        <v>4762.558277599031</v>
       </c>
       <c r="S16">
-        <v>0.006053728142490927</v>
+        <v>0.007806846661971383</v>
       </c>
       <c r="T16">
-        <v>0.006053728142490927</v>
+        <v>0.007806846661971383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.3536477554052</v>
+        <v>7.296131666666668</v>
       </c>
       <c r="H17">
-        <v>5.3536477554052</v>
+        <v>21.888395</v>
       </c>
       <c r="I17">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="J17">
-        <v>0.02064232276696301</v>
+        <v>0.02501979901057877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N17">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O17">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P17">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q17">
-        <v>141.8084276968684</v>
+        <v>212.0754674534944</v>
       </c>
       <c r="R17">
-        <v>141.8084276968684</v>
+        <v>1908.67920708145</v>
       </c>
       <c r="S17">
-        <v>0.002474817691259745</v>
+        <v>0.003128731456508285</v>
       </c>
       <c r="T17">
-        <v>0.002474817691259745</v>
+        <v>0.003128731456508285</v>
       </c>
     </row>
   </sheetData>
